--- a/list of chanel.xlsx
+++ b/list of chanel.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>chanel</t>
   </si>
@@ -25,43 +25,76 @@
     <t>noi dung</t>
   </si>
   <si>
+    <t>ytdiekenh2</t>
+  </si>
+  <si>
+    <t>steven</t>
+  </si>
+  <si>
+    <t>ytdiekenh3</t>
+  </si>
+  <si>
+    <t>ytdiekenh4</t>
+  </si>
+  <si>
+    <t>gravity fall</t>
+  </si>
+  <si>
+    <t>Masha and the Bear</t>
+  </si>
+  <si>
+    <t>ytloandong</t>
+  </si>
+  <si>
+    <t>ytxuanhung1</t>
+  </si>
+  <si>
+    <t>ytxuanhung3</t>
+  </si>
+  <si>
+    <t>ytlinh2</t>
+  </si>
+  <si>
+    <t>ytlinh5</t>
+  </si>
+  <si>
+    <t>ytluatgia6</t>
+  </si>
+  <si>
+    <t>ytlinh6</t>
+  </si>
+  <si>
     <t xml:space="preserve">chorme </t>
   </si>
   <si>
+    <t>ytlinh8</t>
+  </si>
+  <si>
+    <t>streetoutlaws</t>
+  </si>
+  <si>
+    <t>aang clip</t>
+  </si>
+  <si>
+    <t>titan playlist</t>
+  </si>
+  <si>
+    <t>pll son of zorn</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
     <t>channel maintain</t>
   </si>
   <si>
-    <t>ytloandong</t>
-  </si>
-  <si>
-    <t>pll son of zorn</t>
-  </si>
-  <si>
-    <t>ytlinh2</t>
-  </si>
-  <si>
-    <t>titan playlist</t>
-  </si>
-  <si>
-    <t>ytxuanhung1</t>
-  </si>
-  <si>
     <t>steven, regularshow, Gravity falls</t>
   </si>
   <si>
-    <t>ytxuanhung3</t>
-  </si>
-  <si>
     <t>Avatar Aang, we bear, steven</t>
   </si>
   <si>
-    <t>ytdiekenh4</t>
-  </si>
-  <si>
-    <t>Masha and the Bear</t>
+    <t>yttaiho9</t>
   </si>
   <si>
     <t>ytxuanhung4</t>
@@ -70,58 +103,25 @@
     <t>regularshow</t>
   </si>
   <si>
+    <t>ytductoan5</t>
+  </si>
+  <si>
+    <t>ytluatgia2</t>
+  </si>
+  <si>
+    <t>ytductoan4</t>
+  </si>
+  <si>
+    <t>aang</t>
+  </si>
+  <si>
     <t>ytductoan6</t>
   </si>
   <si>
-    <t>ytdiekenh2</t>
-  </si>
-  <si>
-    <t>steven</t>
-  </si>
-  <si>
-    <t>ytductoan5</t>
-  </si>
-  <si>
-    <t>ytluatgia6</t>
-  </si>
-  <si>
-    <t>aang clip</t>
-  </si>
-  <si>
-    <t>ytdiekenh3</t>
-  </si>
-  <si>
-    <t>gravity fall</t>
-  </si>
-  <si>
-    <t>yttaiho9</t>
-  </si>
-  <si>
     <t>yttaiho8</t>
   </si>
   <si>
-    <t>ytlinh8</t>
-  </si>
-  <si>
-    <t>streetoutlaws</t>
-  </si>
-  <si>
-    <t>yttaiho5</t>
-  </si>
-  <si>
-    <t>ytluatgia2</t>
-  </si>
-  <si>
-    <t>south park</t>
-  </si>
-  <si>
-    <t>ytlinh10</t>
-  </si>
-  <si>
-    <t>family guy</t>
-  </si>
-  <si>
-    <t>ytcogang3</t>
+    <t>ytcogang2</t>
   </si>
 </sst>
 </file>
@@ -132,7 +132,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,7 +140,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -149,7 +149,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -175,8 +175,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -488,353 +493,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J20"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="28.375" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1" t="s">
+      <c r="D6" s="3"/>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="1">
+      <c r="D7" s="3"/>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="1">
+      <c r="D16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="1">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="1">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="6">
         <v>4</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/list of chanel.xlsx
+++ b/list of chanel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>chanel</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>ytcogang2</t>
+  </si>
+  <si>
+    <t>ytcogang5</t>
+  </si>
+  <si>
+    <t>48h</t>
   </si>
 </sst>
 </file>
@@ -132,7 +138,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,7 +146,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -149,7 +155,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -495,11 +501,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
@@ -509,7 +515,7 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -540,7 +546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -554,7 +560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -565,7 +571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -577,7 +583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -592,15 +598,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
       <c r="I8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -617,7 +629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -631,7 +643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -651,7 +663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -659,12 +671,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -675,10 +687,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>0</v>
       </c>
@@ -689,27 +701,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>2</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>3</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>4</v>
       </c>

--- a/list of chanel.xlsx
+++ b/list of chanel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>chanel</t>
   </si>
@@ -109,25 +109,37 @@
     <t>ytluatgia2</t>
   </si>
   <si>
-    <t>ytductoan4</t>
-  </si>
-  <si>
-    <t>aang</t>
-  </si>
-  <si>
     <t>ytductoan6</t>
   </si>
   <si>
     <t>yttaiho8</t>
   </si>
   <si>
-    <t>ytcogang2</t>
-  </si>
-  <si>
     <t>ytcogang5</t>
   </si>
   <si>
     <t>48h</t>
+  </si>
+  <si>
+    <t>yttranngoc6</t>
+  </si>
+  <si>
+    <t>satifying</t>
+  </si>
+  <si>
+    <t>ytcogang3</t>
+  </si>
+  <si>
+    <t>american dad</t>
+  </si>
+  <si>
+    <t>ytlinh10</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>yttaiho5</t>
   </si>
 </sst>
 </file>
@@ -501,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,6 +551,12 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
@@ -550,9 +568,6 @@
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
@@ -603,10 +618,10 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>30</v>
@@ -626,7 +641,7 @@
         <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -668,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -705,32 +720,41 @@
       <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/list of chanel.xlsx
+++ b/list of chanel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>chanel</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>ytlinh2</t>
-  </si>
-  <si>
-    <t>ytlinh5</t>
   </si>
   <si>
     <t>ytluatgia6</t>
@@ -514,7 +511,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,13 +535,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -552,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -572,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -583,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -595,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -610,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -618,30 +615,27 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -655,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -663,10 +657,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -675,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -683,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -696,10 +690,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -721,10 +715,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -732,10 +726,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -743,10 +737,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">

--- a/list of chanel.xlsx
+++ b/list of chanel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>chanel</t>
   </si>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>48h</t>
-  </si>
-  <si>
-    <t>yttranngoc6</t>
-  </si>
-  <si>
-    <t>satifying</t>
   </si>
   <si>
     <t>ytcogang3</t>
@@ -510,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -714,22 +708,17 @@
       <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -737,10 +726,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">

--- a/list of chanel.xlsx
+++ b/list of chanel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>chanel</t>
   </si>
@@ -110,12 +110,6 @@
   </si>
   <si>
     <t>yttaiho8</t>
-  </si>
-  <si>
-    <t>ytcogang5</t>
-  </si>
-  <si>
-    <t>48h</t>
   </si>
   <si>
     <t>ytcogang3</t>
@@ -141,7 +135,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -149,7 +143,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -158,7 +152,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -504,11 +498,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
@@ -518,7 +512,7 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,12 +532,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -555,7 +549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -566,7 +560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -577,7 +571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -589,7 +583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -604,21 +598,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
       <c r="I8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -632,7 +620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -646,7 +634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -666,7 +654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -674,12 +662,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -690,10 +678,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>0</v>
       </c>
@@ -704,35 +692,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="6">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="6">
         <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="6">
         <v>4</v>
       </c>

--- a/list of chanel.xlsx
+++ b/list of chanel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>chanel</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>ytluatgia6</t>
-  </si>
-  <si>
-    <t>ytlinh6</t>
   </si>
   <si>
     <t xml:space="preserve">chorme </t>
@@ -499,7 +496,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,13 +520,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
@@ -537,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -557,7 +554,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -568,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -580,7 +577,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -594,16 +591,13 @@
       <c r="G7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -611,13 +605,13 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -631,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -642,7 +636,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -651,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -659,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -672,10 +666,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
         <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -703,10 +697,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -714,10 +708,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
